--- a/biology/Histoire de la zoologie et de la botanique/Xavier_Montrouzier/Xavier_Montrouzier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Xavier_Montrouzier/Xavier_Montrouzier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Révérend Père Jean Xavier Hyacinthe Montrouzier, né le 3 décembre 1820[1] à Montpellier et mort le 16 mai 1897[1] à Saint-Louis en Nouvelle-Calédonie, est un missionnaire et explorateur naturaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Révérend Père Jean Xavier Hyacinthe Montrouzier, né le 3 décembre 1820 à Montpellier et mort le 16 mai 1897 à Saint-Louis en Nouvelle-Calédonie, est un missionnaire et explorateur naturaliste français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier Montrouzier, missionnaire apostolique de la congrégation des Pères maristes dans les Îles de l'océan Pacifique depuis 1846, jusqu'à sa mort en 1897, fut le premier curé de Nouméa et l'aumônier du bagne.
-À côté de son apostolat, le Père Montrouzier s'adonnait à l'étude de la faune, notamment entomologique (il identifie par exemple le genre Rhinoscapha[2]), et de la flore de la Mélanésie, en particulier de la Nouvelle-Calédonie, où il introduisit le merle des Moluques en 1874 pour lutter contre les sauterelles[3]. Il effectua aussi des récoltes au cours de ses voyages en Australie, à Tahiti, ainsi qu'à Madagascar et à La Réunion.
-Ses collections botaniques de Nouvelle-Calédonie, conservées dans les herbiers de l'université de Lyon[4] et de l'institut de botanique de Montpellier[5], ont été étudiées par Georges Beauvisage.
+À côté de son apostolat, le Père Montrouzier s'adonnait à l'étude de la faune, notamment entomologique (il identifie par exemple le genre Rhinoscapha), et de la flore de la Mélanésie, en particulier de la Nouvelle-Calédonie, où il introduisit le merle des Moluques en 1874 pour lutter contre les sauterelles. Il effectua aussi des récoltes au cours de ses voyages en Australie, à Tahiti, ainsi qu'à Madagascar et à La Réunion.
+Ses collections botaniques de Nouvelle-Calédonie, conservées dans les herbiers de l'université de Lyon et de l'institut de botanique de Montpellier, ont été étudiées par Georges Beauvisage.
 Sa collection de coquillages est conservée au Muséum d'histoire naturelle de Bordeaux.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Montrouzier X., 1857. Essai sur la faune entomologique de l'Ile Woodlark ou Moiou. Imprimerie Dumoulin, Lyon, 226 pages.
 Montrouzier X., 1858. Description de quelques hémiptères de la Nouvelle-Calédonie. Annales de la Société linnéenne de Lyon 5: 243-260.
@@ -586,7 +602,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces végétales suivantes lui sont dédiées :
 Phyllanthus montrouzieri Guillaumin (Euphorbiaceae)
@@ -635,9 +653,11 @@
           <t>Commémoration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2008, la Paroisse de Nathalo Lifou, fondée en 1858 par le père Montrouzier en Nouvelle-Calédonie, a célébré le 150e anniversaire de sa première messe. À cette occasion une croix languedocienne en céramique a été offerte à la paroisse par Monseigneur Guy Thomazeau, archevêque de Montpellier, ville natale du Père Montrouzier[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2008, la Paroisse de Nathalo Lifou, fondée en 1858 par le père Montrouzier en Nouvelle-Calédonie, a célébré le 150e anniversaire de sa première messe. À cette occasion une croix languedocienne en céramique a été offerte à la paroisse par Monseigneur Guy Thomazeau, archevêque de Montpellier, ville natale du Père Montrouzier.
 </t>
         </is>
       </c>
